--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hgf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hgf-Cd44.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H2">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I2">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J2">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q2">
-        <v>1.568545241608333</v>
+        <v>1.077307599110222</v>
       </c>
       <c r="R2">
-        <v>14.116907174475</v>
+        <v>9.695768391992001</v>
       </c>
       <c r="S2">
-        <v>5.302293211410312E-05</v>
+        <v>3.393076123429676E-05</v>
       </c>
       <c r="T2">
-        <v>5.53241761916809E-05</v>
+        <v>3.6198073220948E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H3">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I3">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J3">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P3">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q3">
-        <v>6.030435207563889</v>
+        <v>5.410544027562889</v>
       </c>
       <c r="R3">
-        <v>54.273916868075</v>
+        <v>48.694896248066</v>
       </c>
       <c r="S3">
-        <v>0.0002038521734325592</v>
+        <v>0.0001704098975060731</v>
       </c>
       <c r="T3">
-        <v>0.0002126995454678047</v>
+        <v>0.0001817969807663506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H4">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I4">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J4">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N4">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O4">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P4">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q4">
-        <v>10.19161501258611</v>
+        <v>11.26007288938</v>
       </c>
       <c r="R4">
-        <v>91.72453511327498</v>
+        <v>101.34065600442</v>
       </c>
       <c r="S4">
-        <v>0.0003445162412984216</v>
+        <v>0.0003546460128990892</v>
       </c>
       <c r="T4">
-        <v>0.0003594685634033411</v>
+        <v>0.0003783440711451687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H5">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I5">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J5">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N5">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O5">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P5">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q5">
-        <v>5.068393371216668</v>
+        <v>5.502081412255</v>
       </c>
       <c r="R5">
-        <v>30.4103602273</v>
+        <v>33.01248847353001</v>
       </c>
       <c r="S5">
-        <v>0.0001713314162198048</v>
+        <v>0.0001732929488709436</v>
       </c>
       <c r="T5">
-        <v>0.000119178238297809</v>
+        <v>0.0001232484550639137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.07439166666666666</v>
+        <v>0.06674466666666666</v>
       </c>
       <c r="H6">
-        <v>0.223175</v>
+        <v>0.200234</v>
       </c>
       <c r="I6">
-        <v>0.001568113081150489</v>
+        <v>0.0009912440954723497</v>
       </c>
       <c r="J6">
-        <v>0.001576581513651204</v>
+        <v>0.0009958565080158308</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N6">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O6">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P6">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q6">
-        <v>23.529549364975</v>
+        <v>8.222167338058444</v>
       </c>
       <c r="R6">
-        <v>211.765944284775</v>
+        <v>73.99950604252599</v>
       </c>
       <c r="S6">
-        <v>0.0007953903180856007</v>
+        <v>0.000258964474961947</v>
       </c>
       <c r="T6">
-        <v>0.0008299109902905681</v>
+        <v>0.0002762689278194498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>23.990009</v>
       </c>
       <c r="I7">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J7">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N7">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O7">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P7">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q7">
-        <v>168.6094520582103</v>
+        <v>129.0720806577436</v>
       </c>
       <c r="R7">
-        <v>1517.485068523893</v>
+        <v>1161.648725919692</v>
       </c>
       <c r="S7">
-        <v>0.005699655510804181</v>
+        <v>0.004065240006130979</v>
       </c>
       <c r="T7">
-        <v>0.005947025808249179</v>
+        <v>0.004336886354730973</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>23.990009</v>
       </c>
       <c r="I8">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J8">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P8">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q8">
         <v>648.2365628021712</v>
@@ -948,10 +948,10 @@
         <v>5834.129065219541</v>
       </c>
       <c r="S8">
-        <v>0.02191291800298715</v>
+        <v>0.02041678723323597</v>
       </c>
       <c r="T8">
-        <v>0.02286395882185972</v>
+        <v>0.02178107216934974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>23.990009</v>
       </c>
       <c r="I9">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J9">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N9">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O9">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P9">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q9">
-        <v>1095.539087606031</v>
+        <v>1349.06784041113</v>
       </c>
       <c r="R9">
-        <v>9859.851788454276</v>
+        <v>12141.61056370017</v>
       </c>
       <c r="S9">
-        <v>0.03703348372082585</v>
+        <v>0.04249009179891161</v>
       </c>
       <c r="T9">
-        <v>0.03864077101495788</v>
+        <v>0.04532935301631709</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>23.990009</v>
       </c>
       <c r="I10">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J10">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N10">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O10">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P10">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q10">
-        <v>544.8226844002608</v>
+        <v>659.2036447293176</v>
       </c>
       <c r="R10">
-        <v>3268.936106401565</v>
+        <v>3955.221868375906</v>
       </c>
       <c r="S10">
-        <v>0.01841712654686172</v>
+        <v>0.02076220523512728</v>
       </c>
       <c r="T10">
-        <v>0.01281096453172883</v>
+        <v>0.01476638106525059</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>23.990009</v>
       </c>
       <c r="I11">
-        <v>0.1685629973331152</v>
+        <v>0.1187608236941705</v>
       </c>
       <c r="J11">
-        <v>0.1694733043653008</v>
+        <v>0.1193134362296531</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N11">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O11">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P11">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q11">
-        <v>2529.289127508433</v>
+        <v>985.0967789662501</v>
       </c>
       <c r="R11">
-        <v>22763.6021475759</v>
+        <v>8865.871010696252</v>
       </c>
       <c r="S11">
-        <v>0.08549981355163629</v>
+        <v>0.03102649942076462</v>
       </c>
       <c r="T11">
-        <v>0.08921058418850518</v>
+        <v>0.03309974362400467</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H12">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I12">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J12">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N12">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O12">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P12">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q12">
-        <v>430.4519611517603</v>
+        <v>388.4078366965072</v>
       </c>
       <c r="R12">
-        <v>3874.067650365842</v>
+        <v>3495.670530268564</v>
       </c>
       <c r="S12">
-        <v>0.01455095110366697</v>
+        <v>0.01223325035427559</v>
       </c>
       <c r="T12">
-        <v>0.01518247578016691</v>
+        <v>0.01305069724184848</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H13">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I13">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J13">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P13">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q13">
-        <v>1654.917303521854</v>
+        <v>1950.694214755927</v>
       </c>
       <c r="R13">
-        <v>14894.25573169669</v>
+        <v>17556.24793280335</v>
       </c>
       <c r="S13">
-        <v>0.05594264386605736</v>
+        <v>0.06143884968107</v>
       </c>
       <c r="T13">
-        <v>0.05837060612215759</v>
+        <v>0.06554429958141443</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H14">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I14">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J14">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N14">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O14">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P14">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q14">
-        <v>2796.859505928647</v>
+        <v>4059.65812885871</v>
       </c>
       <c r="R14">
-        <v>25171.73555335782</v>
+        <v>36536.92315972839</v>
       </c>
       <c r="S14">
-        <v>0.09454473341392387</v>
+        <v>0.1278625443438309</v>
       </c>
       <c r="T14">
-        <v>0.09864806190143111</v>
+        <v>0.1364065400836454</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H15">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I15">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J15">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N15">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O15">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P15">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q15">
-        <v>1390.906560203361</v>
+        <v>1983.696708746023</v>
       </c>
       <c r="R15">
-        <v>8345.439361220164</v>
+        <v>11902.18025247614</v>
       </c>
       <c r="S15">
-        <v>0.047018053520154</v>
+        <v>0.06247829258914854</v>
       </c>
       <c r="T15">
-        <v>0.03270578689161806</v>
+        <v>0.04443546657157073</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.41511966666667</v>
+        <v>24.06383433333333</v>
       </c>
       <c r="H16">
-        <v>61.24535899999999</v>
+        <v>72.191503</v>
       </c>
       <c r="I16">
-        <v>0.4303333644344477</v>
+        <v>0.3573788721796719</v>
       </c>
       <c r="J16">
-        <v>0.4326573352585701</v>
+        <v>0.3590418115105046</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N16">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O16">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P16">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q16">
-        <v>6457.155586271382</v>
+        <v>2964.384760090435</v>
       </c>
       <c r="R16">
-        <v>58114.40027644244</v>
+        <v>26679.46284081391</v>
       </c>
       <c r="S16">
-        <v>0.2182769825306455</v>
+        <v>0.09336593521134684</v>
       </c>
       <c r="T16">
-        <v>0.2277504045631964</v>
+        <v>0.09960480803202548</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H17">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I17">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J17">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N17">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O17">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P17">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q17">
-        <v>16.11860775714</v>
+        <v>15.101209871714</v>
       </c>
       <c r="R17">
-        <v>96.71164654283999</v>
+        <v>90.60725923028401</v>
       </c>
       <c r="S17">
-        <v>0.000544871657003884</v>
+        <v>0.0004756260393311385</v>
       </c>
       <c r="T17">
-        <v>0.000379013059092572</v>
+        <v>0.000338272127733179</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H18">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I18">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J18">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P18">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q18">
-        <v>61.96966280417999</v>
+        <v>75.8425550398595</v>
       </c>
       <c r="R18">
-        <v>371.81797682508</v>
+        <v>455.0553302391571</v>
       </c>
       <c r="S18">
-        <v>0.002094815716396382</v>
+        <v>0.002388728742451943</v>
       </c>
       <c r="T18">
-        <v>0.001457155098271025</v>
+        <v>0.001698898477936463</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H19">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I19">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J19">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N19">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O19">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P19">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q19">
-        <v>104.73057482946</v>
+        <v>157.838600613015</v>
       </c>
       <c r="R19">
-        <v>628.38344897676</v>
+        <v>947.0316036780901</v>
       </c>
       <c r="S19">
-        <v>0.003540300918422647</v>
+        <v>0.004971267143552185</v>
       </c>
       <c r="T19">
-        <v>0.002462635492141308</v>
+        <v>0.003535637192076978</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H20">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I20">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J20">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N20">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O20">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P20">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q20">
-        <v>52.08357562308</v>
+        <v>77.12568462929626</v>
       </c>
       <c r="R20">
-        <v>208.33430249232</v>
+        <v>308.502738517185</v>
       </c>
       <c r="S20">
-        <v>0.001760627504559991</v>
+        <v>0.002429142050376067</v>
       </c>
       <c r="T20">
-        <v>0.0008164623819795502</v>
+        <v>0.001151760671895931</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7644599999999999</v>
+        <v>0.9355965000000001</v>
       </c>
       <c r="H21">
-        <v>1.52892</v>
+        <v>1.871193</v>
       </c>
       <c r="I21">
-        <v>0.01611416681101785</v>
+        <v>0.01389481066706348</v>
       </c>
       <c r="J21">
-        <v>0.01080079313476688</v>
+        <v>0.009306310251024633</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N21">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O21">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P21">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q21">
-        <v>241.79320229706</v>
+        <v>115.2546168568045</v>
       </c>
       <c r="R21">
-        <v>1450.75921378236</v>
+        <v>691.527701140827</v>
       </c>
       <c r="S21">
-        <v>0.008173551014634949</v>
+        <v>0.003630046691352147</v>
       </c>
       <c r="T21">
-        <v>0.005685527103282426</v>
+        <v>0.002581741781382081</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H22">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I22">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J22">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N22">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O22">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P22">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q22">
-        <v>383.5270264529573</v>
+        <v>553.1652890497809</v>
       </c>
       <c r="R22">
-        <v>3451.743238076616</v>
+        <v>4978.487601448028</v>
       </c>
       <c r="S22">
-        <v>0.01296470573375839</v>
+        <v>0.01742243288857422</v>
       </c>
       <c r="T22">
-        <v>0.01352738590058029</v>
+        <v>0.01858662990296254</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H23">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I23">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J23">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P23">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q23">
-        <v>1474.509514945644</v>
+        <v>2778.152825985196</v>
       </c>
       <c r="R23">
-        <v>13270.58563451079</v>
+        <v>25003.37543386677</v>
       </c>
       <c r="S23">
-        <v>0.04984415867558654</v>
+        <v>0.08750039477002333</v>
       </c>
       <c r="T23">
-        <v>0.05200744105889954</v>
+        <v>0.09334732206201286</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H24">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I24">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J24">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N24">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O24">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P24">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q24">
-        <v>2491.964972921381</v>
+        <v>5781.711258437169</v>
       </c>
       <c r="R24">
-        <v>22427.68475629242</v>
+        <v>52035.40132593452</v>
       </c>
       <c r="S24">
-        <v>0.08423811190453791</v>
+        <v>0.182100139642295</v>
       </c>
       <c r="T24">
-        <v>0.08789412352814047</v>
+        <v>0.1942683850444792</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H25">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I25">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J25">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N25">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O25">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P25">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q25">
-        <v>1239.279420823995</v>
+        <v>2825.154540169607</v>
       </c>
       <c r="R25">
-        <v>7435.67652494397</v>
+        <v>16950.92724101765</v>
       </c>
       <c r="S25">
-        <v>0.04189246625323902</v>
+        <v>0.08898075557218522</v>
       </c>
       <c r="T25">
-        <v>0.02914042524230485</v>
+        <v>0.06328440208411953</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.18960266666667</v>
+        <v>34.27139366666666</v>
       </c>
       <c r="H26">
-        <v>54.568808</v>
+        <v>102.814181</v>
       </c>
       <c r="I26">
-        <v>0.3834213583402689</v>
+        <v>0.5089742493636218</v>
       </c>
       <c r="J26">
-        <v>0.3854919857277112</v>
+        <v>0.5113425855008019</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N26">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O26">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P26">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q26">
-        <v>5753.240558413097</v>
+        <v>4221.837454715128</v>
       </c>
       <c r="R26">
-        <v>51779.16502571787</v>
+        <v>37996.53709243616</v>
       </c>
       <c r="S26">
-        <v>0.194481915773147</v>
+        <v>0.132970526490544</v>
       </c>
       <c r="T26">
-        <v>0.2029226099977859</v>
+        <v>0.1418558464072278</v>
       </c>
     </row>
   </sheetData>
